--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,39 +40,36 @@
     <t>name</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -88,13 +85,13 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>social</t>
@@ -458,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,10 +463,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -527,13 +524,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -545,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -577,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9545454545454546</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -595,19 +592,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -619,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -630,10 +627,10 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -645,19 +642,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -669,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -680,10 +677,10 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -695,19 +692,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.7017543859649122</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -719,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -727,13 +724,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8942307692307693</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -745,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.5862068965517241</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -769,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -777,13 +774,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -795,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.5666666666666667</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="L8">
         <v>34</v>
@@ -819,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -827,13 +824,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -845,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.5066666666666667</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -869,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -877,13 +874,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -895,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.04098360655737705</v>
+        <v>0.03916211293260474</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -919,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -953,13 +950,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4202898550724637</v>
+        <v>0.3985507246376812</v>
       </c>
       <c r="C12">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -971,33 +968,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>27</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
